--- a/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/08,25/25,08,25 ПОКОМ КИ Новороссийск_Сочи/дв 25,08,25 счрсч пок ки.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/08,25/25,08,25 ПОКОМ КИ Новороссийск_Сочи/дв 25,08,25 счрсч пок ки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\заказы Краснодар\25,08,25 ПОКОМ КИ Новороссийск_Сочи\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\Краснодар_филиалы\2025\08,25\25,08,25 ПОКОМ КИ Новороссийск_Сочи\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769B8EB6-0F05-4C87-8CDC-1AB7F32585A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4B96D5-78C8-49D1-A8D4-4DE49987FB7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AH$103</definedName>
@@ -545,17 +546,23 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -575,6 +582,8 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="9">
@@ -19326,6 +19335,3181 @@
           </cell>
           <cell r="K115" t="str">
             <v>SU003420</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Номенклатура</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Ед. изм.</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Начальный остаток</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Приход</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Расход</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>Конечный остаток</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>крат</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>сроки</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>метка</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>29123.827999999998</v>
+          </cell>
+          <cell r="F5">
+            <v>28929.847999999987</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v xml:space="preserve"> 005  Колбаса Докторская ГОСТ, Вязанка вектор,ВЕС. ПОКОМ</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C6">
+            <v>131.86799999999999</v>
+          </cell>
+          <cell r="D6">
+            <v>422.59100000000001</v>
+          </cell>
+          <cell r="E6">
+            <v>188.38800000000001</v>
+          </cell>
+          <cell r="F6">
+            <v>338.149</v>
+          </cell>
+          <cell r="G6">
+            <v>1</v>
+          </cell>
+          <cell r="H6">
+            <v>50</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v xml:space="preserve"> 016  Сосиски Вязанка Молочные, Вязанка вискофан  ВЕС.ПОКОМ</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C7">
+            <v>24.585999999999999</v>
+          </cell>
+          <cell r="D7">
+            <v>268.24400000000003</v>
+          </cell>
+          <cell r="E7">
+            <v>116.236</v>
+          </cell>
+          <cell r="F7">
+            <v>153.97800000000001</v>
+          </cell>
+          <cell r="G7">
+            <v>1</v>
+          </cell>
+          <cell r="H7">
+            <v>45</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v xml:space="preserve"> 017  Сосиски Вязанка Сливочные, Вязанка амицел ВЕС.ПОКОМ</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C8">
+            <v>42.222000000000001</v>
+          </cell>
+          <cell r="D8">
+            <v>121.965</v>
+          </cell>
+          <cell r="E8">
+            <v>75.296000000000006</v>
+          </cell>
+          <cell r="F8">
+            <v>79.100999999999999</v>
+          </cell>
+          <cell r="G8">
+            <v>1</v>
+          </cell>
+          <cell r="H8">
+            <v>45</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v xml:space="preserve"> 023  Колбаса Докторская ГОСТ, Вязанка вектор, 0,4 кг, ПОКОМ</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C9">
+            <v>807</v>
+          </cell>
+          <cell r="D9">
+            <v>535</v>
+          </cell>
+          <cell r="E9">
+            <v>659.327</v>
+          </cell>
+          <cell r="F9">
+            <v>293.673</v>
+          </cell>
+          <cell r="G9">
+            <v>0.4</v>
+          </cell>
+          <cell r="H9">
+            <v>50</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v xml:space="preserve"> 030  Сосиски Вязанка Молочные, Вязанка вискофан МГС, 0.45кг, ПОКОМ</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C10">
+            <v>147</v>
+          </cell>
+          <cell r="D10">
+            <v>383</v>
+          </cell>
+          <cell r="E10">
+            <v>155</v>
+          </cell>
+          <cell r="G10">
+            <v>0.45</v>
+          </cell>
+          <cell r="H10">
+            <v>45</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v>в матрице</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v xml:space="preserve"> 031  Сосиски Вязанка Сливочные, Вязанка амицел МГС, 0.33кг, ТМ Стародворские колбасы</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C11">
+            <v>409.64600000000002</v>
+          </cell>
+          <cell r="D11">
+            <v>337</v>
+          </cell>
+          <cell r="E11">
+            <v>560</v>
+          </cell>
+          <cell r="F11">
+            <v>172.64599999999999</v>
+          </cell>
+          <cell r="G11">
+            <v>0.33</v>
+          </cell>
+          <cell r="H11">
+            <v>45</v>
+          </cell>
+          <cell r="I11" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v xml:space="preserve"> 032  Сосиски Вязанка Сливочные, Вязанка амицел МГС, 0.45кг, ПОКОМ</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C12">
+            <v>110</v>
+          </cell>
+          <cell r="D12">
+            <v>393</v>
+          </cell>
+          <cell r="E12">
+            <v>153</v>
+          </cell>
+          <cell r="F12">
+            <v>-4</v>
+          </cell>
+          <cell r="G12">
+            <v>0.45</v>
+          </cell>
+          <cell r="H12">
+            <v>45</v>
+          </cell>
+          <cell r="I12" t="str">
+            <v>в матрице</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v xml:space="preserve"> 034  Сосиски Рубленые, Вязанка вискофан МГС, 0.5кг, ПОКОМ</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="G13">
+            <v>0</v>
+          </cell>
+          <cell r="H13">
+            <v>40</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v xml:space="preserve"> 043  Ветчина Нежная ТМ Особый рецепт, п/а, 0,4кг    ПОКОМ</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="D14">
+            <v>30</v>
+          </cell>
+          <cell r="E14">
+            <v>7</v>
+          </cell>
+          <cell r="G14">
+            <v>0</v>
+          </cell>
+          <cell r="H14" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="I14" t="str">
+            <v>в матрице</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v xml:space="preserve"> 047  Кол Баварская, белков.обол. в термоусад. пакете 0.17 кг, ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C15">
+            <v>144</v>
+          </cell>
+          <cell r="D15">
+            <v>120</v>
+          </cell>
+          <cell r="E15">
+            <v>119</v>
+          </cell>
+          <cell r="F15">
+            <v>12</v>
+          </cell>
+          <cell r="G15">
+            <v>0.17</v>
+          </cell>
+          <cell r="H15">
+            <v>180</v>
+          </cell>
+          <cell r="I15" t="str">
+            <v>в матрице</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v xml:space="preserve"> 062  Колбаса Кракушка пряная с сальцем, 0.3кг в/у п/к, БАВАРУШКА ПОКОМ</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C16">
+            <v>92</v>
+          </cell>
+          <cell r="D16">
+            <v>558</v>
+          </cell>
+          <cell r="E16">
+            <v>247</v>
+          </cell>
+          <cell r="F16">
+            <v>59</v>
+          </cell>
+          <cell r="G16">
+            <v>0.3</v>
+          </cell>
+          <cell r="H16">
+            <v>40</v>
+          </cell>
+          <cell r="I16" t="str">
+            <v>в матрице</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v xml:space="preserve"> 064  Колбаса Молочная Дугушка, вектор 0,4 кг, ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C17">
+            <v>19</v>
+          </cell>
+          <cell r="E17">
+            <v>5</v>
+          </cell>
+          <cell r="G17">
+            <v>0.4</v>
+          </cell>
+          <cell r="H17" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="I17" t="str">
+            <v>в матрице</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v xml:space="preserve"> 079  Колбаса Сервелат Кремлевский,  0.35 кг, ПОКОМ</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="D18">
+            <v>18</v>
+          </cell>
+          <cell r="E18">
+            <v>9</v>
+          </cell>
+          <cell r="G18">
+            <v>0.35</v>
+          </cell>
+          <cell r="H18">
+            <v>40</v>
+          </cell>
+          <cell r="I18" t="str">
+            <v>в матрице</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v xml:space="preserve"> 083  Колбаса Швейцарская 0,17 кг., ШТ., сырокопченая   ПОКОМ</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C19">
+            <v>179</v>
+          </cell>
+          <cell r="D19">
+            <v>414</v>
+          </cell>
+          <cell r="E19">
+            <v>162</v>
+          </cell>
+          <cell r="F19">
+            <v>131</v>
+          </cell>
+          <cell r="G19">
+            <v>0.17</v>
+          </cell>
+          <cell r="H19">
+            <v>180</v>
+          </cell>
+          <cell r="I19" t="str">
+            <v>в матрице</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v xml:space="preserve"> 115  Колбаса Салями Филейбургская зернистая, в/у 0,35 кг срез, БАВАРУШКА ПОКОМ</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C20">
+            <v>1</v>
+          </cell>
+          <cell r="D20">
+            <v>18</v>
+          </cell>
+          <cell r="E20">
+            <v>4</v>
+          </cell>
+          <cell r="G20">
+            <v>0</v>
+          </cell>
+          <cell r="H20" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="I20" t="str">
+            <v>в матрице</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v xml:space="preserve"> 117  Колбаса Сервелат Филейбургский с ароматными пряностями, в/у 0,35 кг срез, БАВАРУШКА ПОКОМ</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C21">
+            <v>2</v>
+          </cell>
+          <cell r="D21">
+            <v>19</v>
+          </cell>
+          <cell r="E21">
+            <v>3</v>
+          </cell>
+          <cell r="G21">
+            <v>0</v>
+          </cell>
+          <cell r="H21" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="I21" t="str">
+            <v>в матрице</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v xml:space="preserve"> 118  Колбаса Сервелат Филейбургский с филе сочного окорока, в/у 0,35 кг срез, БАВАРУШКА ПОКОМ</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="D22">
+            <v>18</v>
+          </cell>
+          <cell r="E22">
+            <v>10</v>
+          </cell>
+          <cell r="G22">
+            <v>0</v>
+          </cell>
+          <cell r="H22" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="I22" t="str">
+            <v>в матрице</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v xml:space="preserve"> 200  Ветчина Дугушка ТМ Стародворье, вектор в/у    ПОКОМ</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C23">
+            <v>88.412999999999997</v>
+          </cell>
+          <cell r="D23">
+            <v>15.997</v>
+          </cell>
+          <cell r="E23">
+            <v>45.164000000000001</v>
+          </cell>
+          <cell r="F23">
+            <v>43.249000000000002</v>
+          </cell>
+          <cell r="G23">
+            <v>1</v>
+          </cell>
+          <cell r="H23">
+            <v>55</v>
+          </cell>
+          <cell r="I23" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v xml:space="preserve"> 201  Ветчина Нежная ТМ Особый рецепт, (2,5кг), ПОКОМ</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C24">
+            <v>3327.212</v>
+          </cell>
+          <cell r="D24">
+            <v>1529.3040000000001</v>
+          </cell>
+          <cell r="E24">
+            <v>2515.761</v>
+          </cell>
+          <cell r="F24">
+            <v>1669.6489999999999</v>
+          </cell>
+          <cell r="G24">
+            <v>1</v>
+          </cell>
+          <cell r="H24">
+            <v>50</v>
+          </cell>
+          <cell r="I24" t="str">
+            <v>ТОП / матрица</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v xml:space="preserve"> 215  Колбаса Докторская ГОСТ Дугушка, ВЕС, ТМ Стародворье ПОКОМ</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C25">
+            <v>30.071999999999999</v>
+          </cell>
+          <cell r="D25">
+            <v>10.554</v>
+          </cell>
+          <cell r="E25">
+            <v>34.451000000000001</v>
+          </cell>
+          <cell r="F25">
+            <v>-8.0000000000000002E-3</v>
+          </cell>
+          <cell r="G25">
+            <v>1</v>
+          </cell>
+          <cell r="H25">
+            <v>60</v>
+          </cell>
+          <cell r="I25" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v xml:space="preserve"> 219  Колбаса Докторская Особая ТМ Особый рецепт, ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C26">
+            <v>2948.587</v>
+          </cell>
+          <cell r="D26">
+            <v>2293.8389999999999</v>
+          </cell>
+          <cell r="E26">
+            <v>1399.289</v>
+          </cell>
+          <cell r="F26">
+            <v>2263.1419999999998</v>
+          </cell>
+          <cell r="G26">
+            <v>1</v>
+          </cell>
+          <cell r="H26">
+            <v>60</v>
+          </cell>
+          <cell r="I26" t="str">
+            <v>ТОП / матрица</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v xml:space="preserve"> 229  Колбаса Молочная Дугушка, в/у, ВЕС, ТМ Стародворье   ПОКОМ</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C27">
+            <v>102.49299999999999</v>
+          </cell>
+          <cell r="E27">
+            <v>32.478000000000002</v>
+          </cell>
+          <cell r="F27">
+            <v>69.215000000000003</v>
+          </cell>
+          <cell r="G27">
+            <v>1</v>
+          </cell>
+          <cell r="H27">
+            <v>60</v>
+          </cell>
+          <cell r="I27" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v xml:space="preserve"> 231  Колбаса Молочная по-стародворски, ВЕС   ПОКОМ</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C28">
+            <v>50.469000000000001</v>
+          </cell>
+          <cell r="E28">
+            <v>2.7240000000000002</v>
+          </cell>
+          <cell r="F28">
+            <v>46.447000000000003</v>
+          </cell>
+          <cell r="G28">
+            <v>0</v>
+          </cell>
+          <cell r="H28" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="I28" t="str">
+            <v>не в матрице</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v xml:space="preserve"> 236  Колбаса Рубленая ЗАПЕЧ. Дугушка ТМ Стародворье, вектор, в/к    ПОКОМ</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C29">
+            <v>44.765999999999998</v>
+          </cell>
+          <cell r="E29">
+            <v>16.747</v>
+          </cell>
+          <cell r="F29">
+            <v>28.018999999999998</v>
+          </cell>
+          <cell r="G29">
+            <v>1</v>
+          </cell>
+          <cell r="H29">
+            <v>70</v>
+          </cell>
+          <cell r="I29" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v xml:space="preserve"> 239  Колбаса Салями запеч Дугушка, оболочка вектор, ВЕС, ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C30">
+            <v>66.757999999999996</v>
+          </cell>
+          <cell r="E30">
+            <v>11.433999999999999</v>
+          </cell>
+          <cell r="F30">
+            <v>55.323999999999998</v>
+          </cell>
+          <cell r="G30">
+            <v>1</v>
+          </cell>
+          <cell r="H30" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="I30" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v xml:space="preserve"> 240  Колбаса Салями охотничья, ВЕС. ПОКОМ</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C31">
+            <v>9.5589999999999993</v>
+          </cell>
+          <cell r="D31">
+            <v>3.0000000000000001E-3</v>
+          </cell>
+          <cell r="G31">
+            <v>0</v>
+          </cell>
+          <cell r="H31" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="I31" t="str">
+            <v>в матрице</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v xml:space="preserve"> 242  Колбаса Сервелат ЗАПЕЧ.Дугушка ТМ Стародворье, вектор, в/к     ПОКОМ</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C32">
+            <v>50.180999999999997</v>
+          </cell>
+          <cell r="D32">
+            <v>10.561999999999999</v>
+          </cell>
+          <cell r="E32">
+            <v>26.393000000000001</v>
+          </cell>
+          <cell r="F32">
+            <v>34.35</v>
+          </cell>
+          <cell r="G32">
+            <v>1</v>
+          </cell>
+          <cell r="H32">
+            <v>70</v>
+          </cell>
+          <cell r="I32" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v xml:space="preserve"> 243  Колбаса Сервелат Зернистый, ВЕС.  ПОКОМ</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C33">
+            <v>76.403999999999996</v>
+          </cell>
+          <cell r="D33">
+            <v>303.464</v>
+          </cell>
+          <cell r="E33">
+            <v>173.315</v>
+          </cell>
+          <cell r="F33">
+            <v>198.85300000000001</v>
+          </cell>
+          <cell r="G33">
+            <v>1</v>
+          </cell>
+          <cell r="H33">
+            <v>35</v>
+          </cell>
+          <cell r="I33" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v xml:space="preserve"> 244  Колбаса Сервелат Кремлевский, ВЕС. ПОКОМ</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="G34">
+            <v>1</v>
+          </cell>
+          <cell r="H34">
+            <v>40</v>
+          </cell>
+          <cell r="I34" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v xml:space="preserve"> 247  Сардельки Нежные, ВЕС.  ПОКОМ</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C35">
+            <v>45.106000000000002</v>
+          </cell>
+          <cell r="D35">
+            <v>302.29599999999999</v>
+          </cell>
+          <cell r="E35">
+            <v>39.136000000000003</v>
+          </cell>
+          <cell r="F35">
+            <v>302.42500000000001</v>
+          </cell>
+          <cell r="G35">
+            <v>1</v>
+          </cell>
+          <cell r="H35">
+            <v>30</v>
+          </cell>
+          <cell r="I35" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v xml:space="preserve"> 250  Сардельки стародворские с говядиной в обол. NDX, ВЕС. ПОКОМ</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C36">
+            <v>474.13200000000001</v>
+          </cell>
+          <cell r="D36">
+            <v>1102.9939999999999</v>
+          </cell>
+          <cell r="E36">
+            <v>413.65300000000002</v>
+          </cell>
+          <cell r="F36">
+            <v>983.84500000000003</v>
+          </cell>
+          <cell r="G36">
+            <v>1</v>
+          </cell>
+          <cell r="H36">
+            <v>30</v>
+          </cell>
+          <cell r="I36" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v xml:space="preserve"> 253  Сосиски Ганноверские   ПОКОМ</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C37">
+            <v>2257.6790000000001</v>
+          </cell>
+          <cell r="D37">
+            <v>19014.008000000002</v>
+          </cell>
+          <cell r="E37">
+            <v>4850.6899999999996</v>
+          </cell>
+          <cell r="F37">
+            <v>10193.838</v>
+          </cell>
+          <cell r="G37">
+            <v>1</v>
+          </cell>
+          <cell r="H37">
+            <v>40</v>
+          </cell>
+          <cell r="I37" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v xml:space="preserve"> 255  Сосиски Молочные для завтрака ТМ Особый рецепт, п/а МГС, ВЕС, ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C38">
+            <v>34.360999999999997</v>
+          </cell>
+          <cell r="D38">
+            <v>92.215000000000003</v>
+          </cell>
+          <cell r="E38">
+            <v>48.207000000000001</v>
+          </cell>
+          <cell r="F38">
+            <v>46.832999999999998</v>
+          </cell>
+          <cell r="G38">
+            <v>1</v>
+          </cell>
+          <cell r="H38">
+            <v>40</v>
+          </cell>
+          <cell r="I38" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v xml:space="preserve"> 263  Шпикачки Стародворские, ВЕС.  ПОКОМ</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C39">
+            <v>75.197000000000003</v>
+          </cell>
+          <cell r="D39">
+            <v>158.03399999999999</v>
+          </cell>
+          <cell r="E39">
+            <v>91.507999999999996</v>
+          </cell>
+          <cell r="F39">
+            <v>115.512</v>
+          </cell>
+          <cell r="G39">
+            <v>1</v>
+          </cell>
+          <cell r="H39">
+            <v>30</v>
+          </cell>
+          <cell r="I39" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v xml:space="preserve"> 272  Колбаса Сервелат Филедворский, фиброуз, в/у 0,35 кг срез,  ПОКОМ</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C40">
+            <v>136</v>
+          </cell>
+          <cell r="D40">
+            <v>126</v>
+          </cell>
+          <cell r="E40">
+            <v>139</v>
+          </cell>
+          <cell r="F40">
+            <v>-1</v>
+          </cell>
+          <cell r="G40">
+            <v>0.35</v>
+          </cell>
+          <cell r="H40">
+            <v>40</v>
+          </cell>
+          <cell r="I40" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v xml:space="preserve"> 273  Сосиски Сочинки с сочной грудинкой, МГС 0.4кг,   ПОКОМ</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C41">
+            <v>450</v>
+          </cell>
+          <cell r="D41">
+            <v>1576.9659999999999</v>
+          </cell>
+          <cell r="E41">
+            <v>702</v>
+          </cell>
+          <cell r="F41">
+            <v>167.96600000000001</v>
+          </cell>
+          <cell r="G41">
+            <v>0.4</v>
+          </cell>
+          <cell r="H41">
+            <v>45</v>
+          </cell>
+          <cell r="I41" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v xml:space="preserve"> 276  Колбаса Сливушка ТМ Вязанка в оболочке полиамид 0,45 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C42">
+            <v>85</v>
+          </cell>
+          <cell r="D42">
+            <v>356</v>
+          </cell>
+          <cell r="E42">
+            <v>109</v>
+          </cell>
+          <cell r="F42">
+            <v>-2</v>
+          </cell>
+          <cell r="G42">
+            <v>0.45</v>
+          </cell>
+          <cell r="H42">
+            <v>50</v>
+          </cell>
+          <cell r="I42" t="str">
+            <v>в матрице</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v xml:space="preserve"> 278  Сосиски Сочинки с сочным окороком, МГС 0.4кг,   ПОКОМ</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C43">
+            <v>189</v>
+          </cell>
+          <cell r="D43">
+            <v>2149</v>
+          </cell>
+          <cell r="E43">
+            <v>685</v>
+          </cell>
+          <cell r="F43">
+            <v>283</v>
+          </cell>
+          <cell r="G43">
+            <v>0.4</v>
+          </cell>
+          <cell r="H43">
+            <v>45</v>
+          </cell>
+          <cell r="I43" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v xml:space="preserve"> 279  Колбаса Докторский гарант, Вязанка вектор, 0,4 кг.  ПОКОМ</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C44">
+            <v>517</v>
+          </cell>
+          <cell r="D44">
+            <v>397</v>
+          </cell>
+          <cell r="E44">
+            <v>425</v>
+          </cell>
+          <cell r="F44">
+            <v>128</v>
+          </cell>
+          <cell r="G44">
+            <v>0.4</v>
+          </cell>
+          <cell r="H44">
+            <v>50</v>
+          </cell>
+          <cell r="I44" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v xml:space="preserve"> 281  Сосиски Молочные для завтрака ТМ Особый рецепт, 0,4кг  ПОКОМ</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C45">
+            <v>216</v>
+          </cell>
+          <cell r="D45">
+            <v>476</v>
+          </cell>
+          <cell r="E45">
+            <v>229</v>
+          </cell>
+          <cell r="F45">
+            <v>86</v>
+          </cell>
+          <cell r="G45">
+            <v>0.4</v>
+          </cell>
+          <cell r="H45">
+            <v>40</v>
+          </cell>
+          <cell r="I45" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v xml:space="preserve"> 285  Паштет печеночный со слив.маслом ТМ Стародворье ламистер 0,1 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C46">
+            <v>320</v>
+          </cell>
+          <cell r="D46">
+            <v>257</v>
+          </cell>
+          <cell r="E46">
+            <v>528</v>
+          </cell>
+          <cell r="G46">
+            <v>0.1</v>
+          </cell>
+          <cell r="H46">
+            <v>730</v>
+          </cell>
+          <cell r="I46" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v xml:space="preserve"> 291  Сосиски Молокуши миникушай ТМ Вязанка, 0.33кг, ПОКОМ</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C47">
+            <v>389</v>
+          </cell>
+          <cell r="D47">
+            <v>38</v>
+          </cell>
+          <cell r="E47">
+            <v>342</v>
+          </cell>
+          <cell r="F47">
+            <v>46</v>
+          </cell>
+          <cell r="G47">
+            <v>0.33</v>
+          </cell>
+          <cell r="H47">
+            <v>45</v>
+          </cell>
+          <cell r="I47" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v xml:space="preserve"> 296  Колбаса Мясорубская с рубленой грудинкой 0,35кг срез ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C48">
+            <v>258</v>
+          </cell>
+          <cell r="D48">
+            <v>981</v>
+          </cell>
+          <cell r="E48">
+            <v>400</v>
+          </cell>
+          <cell r="F48">
+            <v>156</v>
+          </cell>
+          <cell r="G48">
+            <v>0.35</v>
+          </cell>
+          <cell r="H48">
+            <v>40</v>
+          </cell>
+          <cell r="I48" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v xml:space="preserve"> 301  Сосиски Сочинки по-баварски с сыром,  0.4кг, ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C49">
+            <v>28</v>
+          </cell>
+          <cell r="D49">
+            <v>63</v>
+          </cell>
+          <cell r="E49">
+            <v>15</v>
+          </cell>
+          <cell r="G49">
+            <v>0.4</v>
+          </cell>
+          <cell r="H49">
+            <v>40</v>
+          </cell>
+          <cell r="I49" t="str">
+            <v>в матрице</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v xml:space="preserve"> 302  Сосиски Сочинки по-баварски,  0.4кг, ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C50">
+            <v>50</v>
+          </cell>
+          <cell r="D50">
+            <v>9</v>
+          </cell>
+          <cell r="E50">
+            <v>13</v>
+          </cell>
+          <cell r="G50">
+            <v>0.4</v>
+          </cell>
+          <cell r="H50">
+            <v>45</v>
+          </cell>
+          <cell r="I50" t="str">
+            <v>в матрице</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v xml:space="preserve"> 305  Колбаса Сервелат Мясорубский с мелкорубленным окороком в/у  ТМ Стародворье ВЕС   ПОКОМ</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C51">
+            <v>47.029000000000003</v>
+          </cell>
+          <cell r="D51">
+            <v>21.966000000000001</v>
+          </cell>
+          <cell r="E51">
+            <v>38.033999999999999</v>
+          </cell>
+          <cell r="G51">
+            <v>1</v>
+          </cell>
+          <cell r="H51">
+            <v>40</v>
+          </cell>
+          <cell r="I51" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v xml:space="preserve"> 306  Колбаса Салями Мясорубская с рубленым шпиком 0,35 кг срез ТМ Стародворье   Поком</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C52">
+            <v>102</v>
+          </cell>
+          <cell r="D52">
+            <v>782</v>
+          </cell>
+          <cell r="E52">
+            <v>292</v>
+          </cell>
+          <cell r="F52">
+            <v>104</v>
+          </cell>
+          <cell r="G52">
+            <v>0.35</v>
+          </cell>
+          <cell r="H52">
+            <v>40</v>
+          </cell>
+          <cell r="I52" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v xml:space="preserve"> 307  Колбаса Сервелат Мясорубский с мелкорубленным окороком 0,35 кг срез ТМ Стародворье   Поком</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C53">
+            <v>286</v>
+          </cell>
+          <cell r="D53">
+            <v>222</v>
+          </cell>
+          <cell r="E53">
+            <v>320</v>
+          </cell>
+          <cell r="G53">
+            <v>0.35</v>
+          </cell>
+          <cell r="H53">
+            <v>40</v>
+          </cell>
+          <cell r="I53" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v xml:space="preserve"> 312  Ветчина Филейская ВЕС ТМ  Вязанка ТС Столичная  ПОКОМ</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C54">
+            <v>1.9179999999999999</v>
+          </cell>
+          <cell r="D54">
+            <v>1962.729</v>
+          </cell>
+          <cell r="E54">
+            <v>647.08299999999997</v>
+          </cell>
+          <cell r="F54">
+            <v>1079.5820000000001</v>
+          </cell>
+          <cell r="G54">
+            <v>1</v>
+          </cell>
+          <cell r="H54">
+            <v>50</v>
+          </cell>
+          <cell r="I54" t="str">
+            <v>ТОП / матрица</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v xml:space="preserve"> 315  Колбаса вареная Молокуша ТМ Вязанка ВЕС, ПОКОМ</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C55">
+            <v>131.863</v>
+          </cell>
+          <cell r="D55">
+            <v>182.28700000000001</v>
+          </cell>
+          <cell r="E55">
+            <v>133.80099999999999</v>
+          </cell>
+          <cell r="F55">
+            <v>141.024</v>
+          </cell>
+          <cell r="G55">
+            <v>1</v>
+          </cell>
+          <cell r="H55">
+            <v>50</v>
+          </cell>
+          <cell r="I55" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v xml:space="preserve"> 316  Колбаса Нежная ТМ Зареченские ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C56">
+            <v>131.548</v>
+          </cell>
+          <cell r="D56">
+            <v>312.31200000000001</v>
+          </cell>
+          <cell r="E56">
+            <v>47.825000000000003</v>
+          </cell>
+          <cell r="F56">
+            <v>336.267</v>
+          </cell>
+          <cell r="G56">
+            <v>1</v>
+          </cell>
+          <cell r="H56" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="I56" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v xml:space="preserve"> 317 Колбаса Сервелат Рижский ТМ Зареченские, ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C57">
+            <v>0.71599999999999997</v>
+          </cell>
+          <cell r="D57">
+            <v>282.98899999999998</v>
+          </cell>
+          <cell r="E57">
+            <v>148.15899999999999</v>
+          </cell>
+          <cell r="F57">
+            <v>84.063000000000002</v>
+          </cell>
+          <cell r="G57">
+            <v>1</v>
+          </cell>
+          <cell r="H57">
+            <v>40</v>
+          </cell>
+          <cell r="I57" t="str">
+            <v>ВНИМАНИЕ / матрица</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v xml:space="preserve"> 319  Колбаса вареная Филейская ТМ Вязанка ТС Классическая, 0,45 кг. ПОКОМ</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C58">
+            <v>1637</v>
+          </cell>
+          <cell r="D58">
+            <v>568</v>
+          </cell>
+          <cell r="E58">
+            <v>522</v>
+          </cell>
+          <cell r="F58">
+            <v>378</v>
+          </cell>
+          <cell r="G58">
+            <v>0.45</v>
+          </cell>
+          <cell r="H58">
+            <v>50</v>
+          </cell>
+          <cell r="I58" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v xml:space="preserve"> 321  Колбаса Сервелат Пражский ТМ Зареченские, ВЕС ПОКОМ</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="D59">
+            <v>613.57500000000005</v>
+          </cell>
+          <cell r="E59">
+            <v>117.803</v>
+          </cell>
+          <cell r="F59">
+            <v>420.608</v>
+          </cell>
+          <cell r="G59">
+            <v>1</v>
+          </cell>
+          <cell r="H59">
+            <v>40</v>
+          </cell>
+          <cell r="I59" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v xml:space="preserve"> 322  Колбаса вареная Молокуша 0,45кг ТМ Вязанка  ПОКОМ</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C60">
+            <v>856</v>
+          </cell>
+          <cell r="D60">
+            <v>385</v>
+          </cell>
+          <cell r="E60">
+            <v>721</v>
+          </cell>
+          <cell r="F60">
+            <v>137</v>
+          </cell>
+          <cell r="G60">
+            <v>0.45</v>
+          </cell>
+          <cell r="H60">
+            <v>50</v>
+          </cell>
+          <cell r="I60" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v xml:space="preserve"> 324  Ветчина Филейская ТМ Вязанка Столичная 0,45 кг ПОКОМ</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C61">
+            <v>460</v>
+          </cell>
+          <cell r="D61">
+            <v>344</v>
+          </cell>
+          <cell r="E61">
+            <v>407</v>
+          </cell>
+          <cell r="F61">
+            <v>18</v>
+          </cell>
+          <cell r="G61">
+            <v>0.45</v>
+          </cell>
+          <cell r="H61">
+            <v>50</v>
+          </cell>
+          <cell r="I61" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v xml:space="preserve"> 328  Сардельки Сочинки Стародворье ТМ  0,4 кг ПОКОМ</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C62">
+            <v>50</v>
+          </cell>
+          <cell r="E62">
+            <v>10</v>
+          </cell>
+          <cell r="G62">
+            <v>0</v>
+          </cell>
+          <cell r="H62" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="I62" t="str">
+            <v>в матрице</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v xml:space="preserve"> 330  Колбаса вареная Филейская ТМ Вязанка ТС Классическая ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C63">
+            <v>599.71400000000006</v>
+          </cell>
+          <cell r="D63">
+            <v>113.404</v>
+          </cell>
+          <cell r="E63">
+            <v>257.80099999999999</v>
+          </cell>
+          <cell r="F63">
+            <v>393.11099999999999</v>
+          </cell>
+          <cell r="G63">
+            <v>1</v>
+          </cell>
+          <cell r="H63">
+            <v>50</v>
+          </cell>
+          <cell r="I63" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v xml:space="preserve"> 333  Колбаса Балыковая, Вязанка фиброуз в/у, ВЕС ПОКОМ</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C64">
+            <v>2.7069999999999999</v>
+          </cell>
+          <cell r="D64">
+            <v>46.954999999999998</v>
+          </cell>
+          <cell r="E64">
+            <v>23.061</v>
+          </cell>
+          <cell r="F64">
+            <v>24.832000000000001</v>
+          </cell>
+          <cell r="G64">
+            <v>1</v>
+          </cell>
+          <cell r="H64">
+            <v>40</v>
+          </cell>
+          <cell r="I64" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v xml:space="preserve"> 334  Паштет Любительский ТМ Стародворье ламистер 0,1 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C65">
+            <v>183</v>
+          </cell>
+          <cell r="D65">
+            <v>359</v>
+          </cell>
+          <cell r="E65">
+            <v>471</v>
+          </cell>
+          <cell r="G65">
+            <v>0.1</v>
+          </cell>
+          <cell r="H65">
+            <v>730</v>
+          </cell>
+          <cell r="I65" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v xml:space="preserve"> 335  Колбаса Сливушка ТМ Вязанка. ВЕС.  ПОКОМ </v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C66">
+            <v>95.507999999999996</v>
+          </cell>
+          <cell r="E66">
+            <v>57.546999999999997</v>
+          </cell>
+          <cell r="F66">
+            <v>36.619</v>
+          </cell>
+          <cell r="G66">
+            <v>1</v>
+          </cell>
+          <cell r="H66">
+            <v>50</v>
+          </cell>
+          <cell r="I66" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v xml:space="preserve"> 338  Паштет печеночный с морковью ТМ Стародворье ламистер 0,1 кг.  ПОКОМ</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C67">
+            <v>165</v>
+          </cell>
+          <cell r="D67">
+            <v>283</v>
+          </cell>
+          <cell r="E67">
+            <v>166</v>
+          </cell>
+          <cell r="G67">
+            <v>0.1</v>
+          </cell>
+          <cell r="H67">
+            <v>730</v>
+          </cell>
+          <cell r="I67" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v xml:space="preserve"> 342 Сосиски Сочинки Молочные ТМ Стародворье 0,4 кг ПОКОМ</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C68">
+            <v>147</v>
+          </cell>
+          <cell r="D68">
+            <v>463</v>
+          </cell>
+          <cell r="E68">
+            <v>359</v>
+          </cell>
+          <cell r="F68">
+            <v>234</v>
+          </cell>
+          <cell r="G68">
+            <v>0.4</v>
+          </cell>
+          <cell r="H68">
+            <v>40</v>
+          </cell>
+          <cell r="I68" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v xml:space="preserve"> 343 Сосиски Сочинки Сливочные ТМ Стародворье  0,4 кг</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C69">
+            <v>164</v>
+          </cell>
+          <cell r="D69">
+            <v>378</v>
+          </cell>
+          <cell r="E69">
+            <v>337</v>
+          </cell>
+          <cell r="F69">
+            <v>194</v>
+          </cell>
+          <cell r="G69">
+            <v>0.4</v>
+          </cell>
+          <cell r="H69">
+            <v>40</v>
+          </cell>
+          <cell r="I69" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v xml:space="preserve"> 344  Колбаса Сочинка по-европейски с сочной грудинкой ТМ Стародворье, ВЕС ПОКОМ</v>
+          </cell>
+          <cell r="B70" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C70">
+            <v>3.6859999999999999</v>
+          </cell>
+          <cell r="E70">
+            <v>3.6859999999999999</v>
+          </cell>
+          <cell r="G70">
+            <v>1</v>
+          </cell>
+          <cell r="H70">
+            <v>40</v>
+          </cell>
+          <cell r="I70" t="str">
+            <v>в матрице</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v xml:space="preserve"> 346  Колбаса Сочинка зернистая с сочной грудинкой ТМ Стародворье.ВЕС ПОКОМ</v>
+          </cell>
+          <cell r="B71" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C71">
+            <v>24.416</v>
+          </cell>
+          <cell r="D71">
+            <v>322.03800000000001</v>
+          </cell>
+          <cell r="E71">
+            <v>161.86699999999999</v>
+          </cell>
+          <cell r="F71">
+            <v>104.018</v>
+          </cell>
+          <cell r="G71">
+            <v>1</v>
+          </cell>
+          <cell r="H71">
+            <v>40</v>
+          </cell>
+          <cell r="I71" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v xml:space="preserve"> 353  Колбаса Салями запеченная ТМ Стародворье ТС Дугушка. 0,6 кг ПОКОМ</v>
+          </cell>
+          <cell r="B72" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C72">
+            <v>8</v>
+          </cell>
+          <cell r="E72">
+            <v>3</v>
+          </cell>
+          <cell r="G72">
+            <v>0.6</v>
+          </cell>
+          <cell r="H72">
+            <v>60</v>
+          </cell>
+          <cell r="I72" t="str">
+            <v>в матрице</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v xml:space="preserve"> 354  Колбаса Рубленая запеченная ТМ Стародворье,ТС Дугушка  0,6 кг ПОКОМ</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="D73">
+            <v>5</v>
+          </cell>
+          <cell r="G73">
+            <v>0.6</v>
+          </cell>
+          <cell r="H73">
+            <v>60</v>
+          </cell>
+          <cell r="I73" t="str">
+            <v>в матрице</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v xml:space="preserve"> 355  Колбаса Сервелат запеченный ТМ Стародворье ТС Дугушка. 0,6 кг. ПОКОМ</v>
+          </cell>
+          <cell r="B74" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C74">
+            <v>13</v>
+          </cell>
+          <cell r="D74">
+            <v>2</v>
+          </cell>
+          <cell r="E74">
+            <v>7</v>
+          </cell>
+          <cell r="G74">
+            <v>0.6</v>
+          </cell>
+          <cell r="H74">
+            <v>60</v>
+          </cell>
+          <cell r="I74" t="str">
+            <v>в матрице</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v xml:space="preserve"> 376  Колбаса Докторская Дугушка 0,6кг ГОСТ ТМ Стародворье  ПОКОМ </v>
+          </cell>
+          <cell r="B75" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C75">
+            <v>8</v>
+          </cell>
+          <cell r="E75">
+            <v>6</v>
+          </cell>
+          <cell r="G75">
+            <v>0.6</v>
+          </cell>
+          <cell r="H75">
+            <v>55</v>
+          </cell>
+          <cell r="I75" t="str">
+            <v>в матрице</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v xml:space="preserve"> 387  Колбаса вареная Мусульманская Халяль ТМ Вязанка, 0,4 кг ПОКОМ</v>
+          </cell>
+          <cell r="B76" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C76">
+            <v>27</v>
+          </cell>
+          <cell r="D76">
+            <v>236</v>
+          </cell>
+          <cell r="E76">
+            <v>113</v>
+          </cell>
+          <cell r="G76">
+            <v>0.4</v>
+          </cell>
+          <cell r="H76" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="I76" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v xml:space="preserve"> 388  Сосиски Восточные Халяль ТМ Вязанка 0,33 кг АК. ПОКОМ</v>
+          </cell>
+          <cell r="B77" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C77">
+            <v>140</v>
+          </cell>
+          <cell r="D77">
+            <v>244</v>
+          </cell>
+          <cell r="E77">
+            <v>186</v>
+          </cell>
+          <cell r="F77">
+            <v>113</v>
+          </cell>
+          <cell r="G77">
+            <v>0.33</v>
+          </cell>
+          <cell r="H77" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="I77" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v xml:space="preserve"> 394 Колбаса полукопченая Аль-Ислами халяль ТМ Вязанка оболочка фиброуз в в/у 0,35 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B78" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C78">
+            <v>154</v>
+          </cell>
+          <cell r="D78">
+            <v>88</v>
+          </cell>
+          <cell r="E78">
+            <v>142</v>
+          </cell>
+          <cell r="F78">
+            <v>-1</v>
+          </cell>
+          <cell r="G78">
+            <v>0.35</v>
+          </cell>
+          <cell r="H78" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="I78" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v xml:space="preserve"> 410  Сосиски Баварские с сыром ТМ Стародворье 0,35 кг. ПОКОМ</v>
+          </cell>
+          <cell r="B79" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C79">
+            <v>379</v>
+          </cell>
+          <cell r="D79">
+            <v>323</v>
+          </cell>
+          <cell r="E79">
+            <v>321</v>
+          </cell>
+          <cell r="G79">
+            <v>0.35</v>
+          </cell>
+          <cell r="H79">
+            <v>40</v>
+          </cell>
+          <cell r="I79" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v xml:space="preserve"> 412  Сосиски Баварские ТМ Стародворье 0,35 кг ПОКОМ</v>
+          </cell>
+          <cell r="B80" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C80">
+            <v>909</v>
+          </cell>
+          <cell r="D80">
+            <v>976</v>
+          </cell>
+          <cell r="E80">
+            <v>488</v>
+          </cell>
+          <cell r="F80">
+            <v>2</v>
+          </cell>
+          <cell r="G80">
+            <v>0.35</v>
+          </cell>
+          <cell r="H80">
+            <v>45</v>
+          </cell>
+          <cell r="I80" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v xml:space="preserve"> 413  Ветчина Сливушка с индейкой ТМ Вязанка  0,3 кг. ПОКОМ</v>
+          </cell>
+          <cell r="B81" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C81">
+            <v>1</v>
+          </cell>
+          <cell r="D81">
+            <v>90</v>
+          </cell>
+          <cell r="E81">
+            <v>20</v>
+          </cell>
+          <cell r="G81">
+            <v>0.3</v>
+          </cell>
+          <cell r="H81">
+            <v>50</v>
+          </cell>
+          <cell r="I81" t="str">
+            <v>в матрице</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v xml:space="preserve"> 434  Колбаса Сервелат Кремлевский в вакуумной упаковке ТМ Стародворье.ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B82" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C82">
+            <v>456.25599999999997</v>
+          </cell>
+          <cell r="D82">
+            <v>1185.8779999999999</v>
+          </cell>
+          <cell r="E82">
+            <v>440.41399999999999</v>
+          </cell>
+          <cell r="F82">
+            <v>911.88900000000001</v>
+          </cell>
+          <cell r="G82">
+            <v>0</v>
+          </cell>
+          <cell r="H82" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="I82" t="str">
+            <v>не в матрице</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v xml:space="preserve"> 437  Шпикачки Сочинки в оболочке черева в модифицированной газовой среде.ТМ Стародворье ВЕС ПОКОМ</v>
+          </cell>
+          <cell r="B83" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="G83">
+            <v>0</v>
+          </cell>
+          <cell r="H83" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="I83" t="str">
+            <v>не в матрице</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v xml:space="preserve"> 452  Колбаса Со шпиком ВЕС большой батон ТМ Особый рецепт  ПОКОМ</v>
+          </cell>
+          <cell r="B84" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C84">
+            <v>403.03199999999998</v>
+          </cell>
+          <cell r="D84">
+            <v>929.95500000000004</v>
+          </cell>
+          <cell r="E84">
+            <v>383.95699999999999</v>
+          </cell>
+          <cell r="F84">
+            <v>413.827</v>
+          </cell>
+          <cell r="G84">
+            <v>1</v>
+          </cell>
+          <cell r="H84">
+            <v>60</v>
+          </cell>
+          <cell r="I84" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v xml:space="preserve"> 456  Колбаса Филейная ТМ Особый рецепт ВЕС большой батон  ПОКОМ</v>
+          </cell>
+          <cell r="B85" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C85">
+            <v>198.029</v>
+          </cell>
+          <cell r="D85">
+            <v>809.75400000000002</v>
+          </cell>
+          <cell r="E85">
+            <v>108.24299999999999</v>
+          </cell>
+          <cell r="F85">
+            <v>508.99599999999998</v>
+          </cell>
+          <cell r="G85">
+            <v>1</v>
+          </cell>
+          <cell r="H85">
+            <v>60</v>
+          </cell>
+          <cell r="I85" t="str">
+            <v>в матрице</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v xml:space="preserve"> 457  Колбаса Молочная ТМ Особый рецепт ВЕС большой батон  ПОКОМ</v>
+          </cell>
+          <cell r="B86" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C86">
+            <v>143.03</v>
+          </cell>
+          <cell r="D86">
+            <v>624.91300000000001</v>
+          </cell>
+          <cell r="E86">
+            <v>199.892</v>
+          </cell>
+          <cell r="F86">
+            <v>188.56800000000001</v>
+          </cell>
+          <cell r="G86">
+            <v>1</v>
+          </cell>
+          <cell r="H86">
+            <v>60</v>
+          </cell>
+          <cell r="I86" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v xml:space="preserve"> 460  Колбаса Стародворская Традиционная ВЕС ТМ Стародворье в оболочке полиамид. ПОКОМ</v>
+          </cell>
+          <cell r="B87" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C87">
+            <v>857.76300000000003</v>
+          </cell>
+          <cell r="D87">
+            <v>2039.4380000000001</v>
+          </cell>
+          <cell r="E87">
+            <v>678.48199999999997</v>
+          </cell>
+          <cell r="F87">
+            <v>1093.3399999999999</v>
+          </cell>
+          <cell r="G87">
+            <v>1</v>
+          </cell>
+          <cell r="H87">
+            <v>55</v>
+          </cell>
+          <cell r="I87" t="str">
+            <v>ТОП / матрица</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v xml:space="preserve"> 462  Колбаса Со шпиком ТМ Особый рецепт в оболочке полиамид 0,5 кг. ПОКОМ</v>
+          </cell>
+          <cell r="B88" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C88">
+            <v>117</v>
+          </cell>
+          <cell r="D88">
+            <v>149</v>
+          </cell>
+          <cell r="E88">
+            <v>43</v>
+          </cell>
+          <cell r="F88">
+            <v>71</v>
+          </cell>
+          <cell r="G88">
+            <v>0.5</v>
+          </cell>
+          <cell r="H88">
+            <v>60</v>
+          </cell>
+          <cell r="I88" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v xml:space="preserve"> 463  Колбаса Молочная Традиционнаяв оболочке полиамид.ТМ Стародворье. ВЕС ПОКОМ</v>
+          </cell>
+          <cell r="B89" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C89">
+            <v>1.333</v>
+          </cell>
+          <cell r="D89">
+            <v>79.790000000000006</v>
+          </cell>
+          <cell r="E89">
+            <v>51.930999999999997</v>
+          </cell>
+          <cell r="F89">
+            <v>1.3360000000000001</v>
+          </cell>
+          <cell r="G89">
+            <v>1</v>
+          </cell>
+          <cell r="H89">
+            <v>55</v>
+          </cell>
+          <cell r="I89" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v xml:space="preserve"> 464  Колбаса Стародворская Традиционная со шпиком оболочке полиамид ТМ Стародворье.</v>
+          </cell>
+          <cell r="B90" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C90">
+            <v>28.231000000000002</v>
+          </cell>
+          <cell r="D90">
+            <v>108.875</v>
+          </cell>
+          <cell r="E90">
+            <v>81.221000000000004</v>
+          </cell>
+          <cell r="F90">
+            <v>55.884999999999998</v>
+          </cell>
+          <cell r="G90">
+            <v>1</v>
+          </cell>
+          <cell r="H90">
+            <v>55</v>
+          </cell>
+          <cell r="I90" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v xml:space="preserve"> 466  Сосиски Ганноверские в оболочке амицел в модиф. газовой среде 0,5 кг ТМ Стародворье. ПОКОМ</v>
+          </cell>
+          <cell r="B91" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C91">
+            <v>307</v>
+          </cell>
+          <cell r="D91">
+            <v>94</v>
+          </cell>
+          <cell r="E91">
+            <v>316</v>
+          </cell>
+          <cell r="F91">
+            <v>-2</v>
+          </cell>
+          <cell r="G91">
+            <v>0.5</v>
+          </cell>
+          <cell r="H91">
+            <v>40</v>
+          </cell>
+          <cell r="I91" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v xml:space="preserve"> 467  Колбаса Филейная 0,5кг ТМ Особый рецепт  ПОКОМ</v>
+          </cell>
+          <cell r="B92" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C92">
+            <v>248</v>
+          </cell>
+          <cell r="D92">
+            <v>122</v>
+          </cell>
+          <cell r="E92">
+            <v>78</v>
+          </cell>
+          <cell r="F92">
+            <v>172</v>
+          </cell>
+          <cell r="G92">
+            <v>0.5</v>
+          </cell>
+          <cell r="H92">
+            <v>60</v>
+          </cell>
+          <cell r="I92" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v xml:space="preserve"> 468  Колбаса Стародворская Традиционная ТМ Стародворье в оболочке полиамид 0,4 кг. ПОКОМ</v>
+          </cell>
+          <cell r="B93" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C93">
+            <v>116</v>
+          </cell>
+          <cell r="D93">
+            <v>135</v>
+          </cell>
+          <cell r="E93">
+            <v>124</v>
+          </cell>
+          <cell r="F93">
+            <v>117</v>
+          </cell>
+          <cell r="G93">
+            <v>0.4</v>
+          </cell>
+          <cell r="H93">
+            <v>55</v>
+          </cell>
+          <cell r="I93" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v xml:space="preserve"> 469  Колбаса Филедворская по-стародворски ТМ Стародворье в оболочке полиамид.ВЕС  ПОКОМ </v>
+          </cell>
+          <cell r="B94" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C94">
+            <v>657.40200000000004</v>
+          </cell>
+          <cell r="D94">
+            <v>2969.5219999999999</v>
+          </cell>
+          <cell r="E94">
+            <v>369.43</v>
+          </cell>
+          <cell r="F94">
+            <v>2301.4070000000002</v>
+          </cell>
+          <cell r="G94">
+            <v>1</v>
+          </cell>
+          <cell r="H94">
+            <v>55</v>
+          </cell>
+          <cell r="I94" t="str">
+            <v>ТОП / матрица</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v xml:space="preserve"> 481  Колбаса Филейная оригинальная ВЕС 1,87кг ТМ Особый рецепт большой батон  ПОКОМ</v>
+          </cell>
+          <cell r="B95" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C95">
+            <v>16.114000000000001</v>
+          </cell>
+          <cell r="E95">
+            <v>8.9260000000000002</v>
+          </cell>
+          <cell r="F95">
+            <v>7.1879999999999997</v>
+          </cell>
+          <cell r="G95">
+            <v>1</v>
+          </cell>
+          <cell r="H95" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="I95" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v xml:space="preserve"> 483  Колбаса Молочная Традиционная ТМ Стародворье в оболочке полиамид 0,4 кг. ПОКОМ </v>
+          </cell>
+          <cell r="B96" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C96">
+            <v>132</v>
+          </cell>
+          <cell r="D96">
+            <v>40</v>
+          </cell>
+          <cell r="E96">
+            <v>83</v>
+          </cell>
+          <cell r="F96">
+            <v>88</v>
+          </cell>
+          <cell r="G96">
+            <v>0.4</v>
+          </cell>
+          <cell r="H96">
+            <v>55</v>
+          </cell>
+          <cell r="I96" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v xml:space="preserve"> 485  Колбаса Молочная по-стародворски ТМ Стародворье в оболочке полиамид. ВЕС ПОКОМ </v>
+          </cell>
+          <cell r="B97" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C97">
+            <v>50.896000000000001</v>
+          </cell>
+          <cell r="D97">
+            <v>10.805</v>
+          </cell>
+          <cell r="E97">
+            <v>53.619</v>
+          </cell>
+          <cell r="F97">
+            <v>8.0820000000000007</v>
+          </cell>
+          <cell r="G97">
+            <v>1</v>
+          </cell>
+          <cell r="H97">
+            <v>55</v>
+          </cell>
+          <cell r="I97" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v xml:space="preserve"> 495  Колбаса Сочинка по-европейски с сочной грудинкой 0,3кг ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B98" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C98">
+            <v>266</v>
+          </cell>
+          <cell r="D98">
+            <v>97</v>
+          </cell>
+          <cell r="E98">
+            <v>270</v>
+          </cell>
+          <cell r="F98">
+            <v>5</v>
+          </cell>
+          <cell r="G98">
+            <v>0.3</v>
+          </cell>
+          <cell r="H98">
+            <v>40</v>
+          </cell>
+          <cell r="I98" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v xml:space="preserve"> 496  Колбаса Сочинка по-фински с сочным окроком 0,3кг ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B99" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C99">
+            <v>95</v>
+          </cell>
+          <cell r="D99">
+            <v>770</v>
+          </cell>
+          <cell r="E99">
+            <v>231</v>
+          </cell>
+          <cell r="F99">
+            <v>157</v>
+          </cell>
+          <cell r="G99">
+            <v>0.3</v>
+          </cell>
+          <cell r="H99">
+            <v>40</v>
+          </cell>
+          <cell r="I99" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v xml:space="preserve"> 498  Колбаса Сочинка рубленая с сочным окороком 0,3кг ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B100" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C100">
+            <v>162</v>
+          </cell>
+          <cell r="D100">
+            <v>133</v>
+          </cell>
+          <cell r="E100">
+            <v>148</v>
+          </cell>
+          <cell r="F100">
+            <v>131</v>
+          </cell>
+          <cell r="G100">
+            <v>0.3</v>
+          </cell>
+          <cell r="H100">
+            <v>40</v>
+          </cell>
+          <cell r="I100" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v xml:space="preserve"> 519  Грудинка 0,12 кг нарезка ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B101" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C101">
+            <v>127</v>
+          </cell>
+          <cell r="D101">
+            <v>138</v>
+          </cell>
+          <cell r="E101">
+            <v>85</v>
+          </cell>
+          <cell r="F101">
+            <v>20</v>
+          </cell>
+          <cell r="G101">
+            <v>0.12</v>
+          </cell>
+          <cell r="H101">
+            <v>45</v>
+          </cell>
+          <cell r="I101" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
+            <v xml:space="preserve"> 520  Колбаса Мраморная ТМ Стародворье в вакуумной упаковке 0,07 кг нарезка  ПОКОМ</v>
+          </cell>
+          <cell r="B102" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C102">
+            <v>142</v>
+          </cell>
+          <cell r="D102">
+            <v>116</v>
+          </cell>
+          <cell r="E102">
+            <v>119</v>
+          </cell>
+          <cell r="F102">
+            <v>61</v>
+          </cell>
+          <cell r="G102">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+          <cell r="H102">
+            <v>60</v>
+          </cell>
+          <cell r="I102" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v xml:space="preserve"> 521  Бекон ТМ Стародворье в вакуумной упаковке 0,12кг нарезка  ПОКОМ</v>
+          </cell>
+          <cell r="B103" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C103">
+            <v>126</v>
+          </cell>
+          <cell r="D103">
+            <v>2</v>
+          </cell>
+          <cell r="E103">
+            <v>71</v>
+          </cell>
+          <cell r="F103">
+            <v>17</v>
+          </cell>
+          <cell r="G103">
+            <v>0.12</v>
+          </cell>
+          <cell r="H103">
+            <v>90</v>
+          </cell>
+          <cell r="I103" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v xml:space="preserve"> 522  Колбаса Гвардейская с/к ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B104" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="G104">
+            <v>1</v>
+          </cell>
+          <cell r="H104">
+            <v>180</v>
+          </cell>
+          <cell r="I104" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v xml:space="preserve"> 525  Колбаса Фуэт нарезка 0,07кг ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B105" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C105">
+            <v>263</v>
+          </cell>
+          <cell r="D105">
+            <v>23</v>
+          </cell>
+          <cell r="E105">
+            <v>192</v>
+          </cell>
+          <cell r="G105">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+          <cell r="H105">
+            <v>90</v>
+          </cell>
+          <cell r="I105" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
+            <v xml:space="preserve"> 526  Корейка вяленая выдержанная нарезка 0,05кг ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B106" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C106">
+            <v>2</v>
+          </cell>
+          <cell r="D106">
+            <v>129</v>
+          </cell>
+          <cell r="E106">
+            <v>105</v>
+          </cell>
+          <cell r="G106">
+            <v>0.05</v>
+          </cell>
+          <cell r="H106">
+            <v>90</v>
+          </cell>
+          <cell r="I106" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v xml:space="preserve"> 527  Окорок Прошутто выдержанный нарезка 0,055кг ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B107" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C107">
+            <v>296</v>
+          </cell>
+          <cell r="D107">
+            <v>213</v>
+          </cell>
+          <cell r="E107">
+            <v>156</v>
+          </cell>
+          <cell r="F107">
+            <v>66</v>
+          </cell>
+          <cell r="G107">
+            <v>5.5E-2</v>
+          </cell>
+          <cell r="H107">
+            <v>90</v>
+          </cell>
+          <cell r="I107" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108" t="str">
+            <v xml:space="preserve"> 529  Бекон выдержанный нарезка 0,055кг ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B108" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C108">
+            <v>33</v>
+          </cell>
+          <cell r="D108">
+            <v>80</v>
+          </cell>
+          <cell r="E108">
+            <v>55</v>
+          </cell>
+          <cell r="F108">
+            <v>42</v>
+          </cell>
+          <cell r="G108">
+            <v>5.5E-2</v>
+          </cell>
+          <cell r="H108">
+            <v>90</v>
+          </cell>
+          <cell r="I108" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109" t="str">
+            <v xml:space="preserve"> 530  Окорок Хамон выдержанный нарезка 0,055кг ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B109" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C109">
+            <v>243</v>
+          </cell>
+          <cell r="D109">
+            <v>51</v>
+          </cell>
+          <cell r="E109">
+            <v>75</v>
+          </cell>
+          <cell r="F109">
+            <v>33</v>
+          </cell>
+          <cell r="G109">
+            <v>5.5E-2</v>
+          </cell>
+          <cell r="H109">
+            <v>90</v>
+          </cell>
+          <cell r="I109" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110" t="str">
+            <v>298  Колбаса Сливушка ТМ Вязанка, 0,375кг,  ПОКОМ</v>
+          </cell>
+          <cell r="B110" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C110">
+            <v>739</v>
+          </cell>
+          <cell r="D110">
+            <v>11</v>
+          </cell>
+          <cell r="E110">
+            <v>431</v>
+          </cell>
+          <cell r="F110">
+            <v>313</v>
+          </cell>
+          <cell r="G110">
+            <v>0.375</v>
+          </cell>
+          <cell r="H110">
+            <v>50</v>
+          </cell>
+          <cell r="I110" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111" t="str">
+            <v>523  Колбаса Сальчичон нарезка 0,07кг ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B111" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C111">
+            <v>321</v>
+          </cell>
+          <cell r="D111">
+            <v>197</v>
+          </cell>
+          <cell r="E111">
+            <v>167</v>
+          </cell>
+          <cell r="F111">
+            <v>117</v>
+          </cell>
+          <cell r="G111">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+          <cell r="H111">
+            <v>90</v>
+          </cell>
+          <cell r="I111" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112" t="str">
+            <v>524  Колбаса Сервелат Ореховый нарезка 0,07кг ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B112" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C112">
+            <v>291</v>
+          </cell>
+          <cell r="D112">
+            <v>142</v>
+          </cell>
+          <cell r="E112">
+            <v>268</v>
+          </cell>
+          <cell r="F112">
+            <v>82</v>
+          </cell>
+          <cell r="G112">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+          <cell r="H112">
+            <v>90</v>
+          </cell>
+          <cell r="I112" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113" t="str">
+            <v>БОНУС_ 307  Колбаса Сервелат Мясорубский с мелкорубленным окороком 0,35 кг срез ТМ Стародворье</v>
+          </cell>
+          <cell r="B113" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C113">
+            <v>-33</v>
+          </cell>
+          <cell r="D113">
+            <v>64</v>
+          </cell>
+          <cell r="E113">
+            <v>31</v>
+          </cell>
+          <cell r="G113">
+            <v>0</v>
+          </cell>
+          <cell r="H113" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="I113" t="str">
+            <v>бонус</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114" t="str">
+            <v>БОНУС_ 319  Колбаса вареная Филейская ТМ Вязанка ТС Классическая, 0,45 кг. ПОКОМ</v>
+          </cell>
+          <cell r="B114" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C114">
+            <v>-291</v>
+          </cell>
+          <cell r="D114">
+            <v>788</v>
+          </cell>
+          <cell r="E114">
+            <v>497</v>
+          </cell>
+          <cell r="G114">
+            <v>0</v>
+          </cell>
+          <cell r="H114" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="I114" t="str">
+            <v>бонус</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115" t="str">
+            <v>БОНУС_ 412  Сосиски Баварские ТМ Стародворье 0,35 кг ПОКОМ</v>
+          </cell>
+          <cell r="B115" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C115">
+            <v>-279</v>
+          </cell>
+          <cell r="D115">
+            <v>733</v>
+          </cell>
+          <cell r="E115">
+            <v>454</v>
+          </cell>
+          <cell r="G115">
+            <v>0</v>
+          </cell>
+          <cell r="H115" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="I115" t="str">
+            <v>бонус</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116" t="str">
+            <v>БОНУС_523  Колбаса Сальчичон нарезка 0,07кг ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B116" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C116">
+            <v>-58</v>
+          </cell>
+          <cell r="D116">
+            <v>130</v>
+          </cell>
+          <cell r="E116">
+            <v>72</v>
+          </cell>
+          <cell r="G116">
+            <v>0</v>
+          </cell>
+          <cell r="H116" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="I116" t="str">
+            <v>бонус</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117" t="str">
+            <v>БОНУС_Колбаса Докторская Особая ТМ Особый рецепт, ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B117" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C117">
+            <v>-49.95</v>
+          </cell>
+          <cell r="D117">
+            <v>408.20400000000001</v>
+          </cell>
+          <cell r="E117">
+            <v>358.25400000000002</v>
+          </cell>
+          <cell r="G117">
+            <v>0</v>
+          </cell>
+          <cell r="H117" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="I117" t="str">
+            <v>бонус</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118" t="str">
+            <v>БОНУС_Колбаса Сервелат Мясорубский с мелкорубленным окороком в/у  ТМ Стародворье ВЕС   ПОКОМ</v>
+          </cell>
+          <cell r="B118" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="D118">
+            <v>29.594999999999999</v>
+          </cell>
+          <cell r="E118">
+            <v>29.594999999999999</v>
+          </cell>
+          <cell r="G118">
+            <v>0</v>
+          </cell>
+          <cell r="H118" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="I118" t="str">
+            <v>бонус</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119" t="str">
+            <v>С/к колбасы Княжеская Бордо Весовые б/о терм/п Стародворье</v>
+          </cell>
+          <cell r="G119">
+            <v>1</v>
+          </cell>
+          <cell r="H119">
+            <v>180</v>
+          </cell>
+          <cell r="I119" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120" t="str">
+            <v>С/к колбасы Салями Охотничья Бордо Весовые б/о терм/п 180 Стародворье</v>
+          </cell>
+          <cell r="B120" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="G120">
+            <v>1</v>
+          </cell>
+          <cell r="H120">
+            <v>180</v>
+          </cell>
+          <cell r="I120" t="str">
+            <v>матрица</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
+            <v xml:space="preserve"> 345  Колбаса Сочинка по-фински с сочным окроком ТМ Стародворье ВЕС ПОКОМ</v>
+          </cell>
+          <cell r="B121" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="G121">
+            <v>1</v>
+          </cell>
+          <cell r="H121">
+            <v>40</v>
+          </cell>
+          <cell r="I121" t="str">
+            <v>ВНИМАНИЕ / в матрице</v>
           </cell>
         </row>
       </sheetData>
@@ -19619,13 +22803,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AY500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomRight" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19646,9 +22831,11 @@
     <col min="20" max="20" width="21" customWidth="1"/>
     <col min="21" max="22" width="5" customWidth="1"/>
     <col min="23" max="32" width="6" customWidth="1"/>
-    <col min="33" max="33" width="59.28515625" customWidth="1"/>
+    <col min="33" max="33" width="18.42578125" customWidth="1"/>
     <col min="34" max="34" width="7" customWidth="1"/>
-    <col min="35" max="51" width="8" customWidth="1"/>
+    <col min="35" max="35" width="8" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" customWidth="1"/>
+    <col min="37" max="51" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -20169,7 +23356,10 @@
         <v>94.160799999999981</v>
       </c>
       <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
+      <c r="AJ6" s="11" t="str">
+        <f>VLOOKUP(A6,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK6" s="11"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
@@ -20286,7 +23476,10 @@
         <v>114.9058</v>
       </c>
       <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
+      <c r="AJ7" s="11" t="str">
+        <f>VLOOKUP(A7,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK7" s="11"/>
       <c r="AL7" s="11"/>
       <c r="AM7" s="11"/>
@@ -20403,7 +23596,10 @@
         <v>217.36</v>
       </c>
       <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
+      <c r="AJ8" s="11" t="str">
+        <f>VLOOKUP(A8,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK8" s="11"/>
       <c r="AL8" s="11"/>
       <c r="AM8" s="11"/>
@@ -20420,7 +23616,7 @@
       <c r="AX8" s="11"/>
       <c r="AY8" s="11"/>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>42</v>
       </c>
@@ -20617,7 +23813,10 @@
         <v>170.01000000000005</v>
       </c>
       <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
+      <c r="AJ10" s="11" t="str">
+        <f>VLOOKUP(A10,[3]Sheet!$A:$I,9,0)</f>
+        <v>в матрице</v>
+      </c>
       <c r="AK10" s="11"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
@@ -20634,7 +23833,7 @@
       <c r="AX10" s="11"/>
       <c r="AY10" s="11"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>45</v>
       </c>
@@ -20833,7 +24032,10 @@
         <v>220.85999999999999</v>
       </c>
       <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
+      <c r="AJ12" s="11" t="str">
+        <f>VLOOKUP(A12,[3]Sheet!$A:$I,9,0)</f>
+        <v>в матрице</v>
+      </c>
       <c r="AK12" s="11"/>
       <c r="AL12" s="11"/>
       <c r="AM12" s="11"/>
@@ -20941,7 +24143,10 @@
         <v>5</v>
       </c>
       <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
+      <c r="AJ13" s="11" t="str">
+        <f>VLOOKUP(A13,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK13" s="11"/>
       <c r="AL13" s="11"/>
       <c r="AM13" s="11"/>
@@ -21052,7 +24257,10 @@
         <v>0</v>
       </c>
       <c r="AI14" s="11"/>
-      <c r="AJ14" s="11"/>
+      <c r="AJ14" s="11" t="str">
+        <f>VLOOKUP(A14,[3]Sheet!$A:$I,9,0)</f>
+        <v>в матрице</v>
+      </c>
       <c r="AK14" s="11"/>
       <c r="AL14" s="11"/>
       <c r="AM14" s="11"/>
@@ -21169,7 +24377,10 @@
         <v>13.123999999999999</v>
       </c>
       <c r="AI15" s="11"/>
-      <c r="AJ15" s="11"/>
+      <c r="AJ15" s="11" t="str">
+        <f>VLOOKUP(A15,[3]Sheet!$A:$I,9,0)</f>
+        <v>в матрице</v>
+      </c>
       <c r="AK15" s="11"/>
       <c r="AL15" s="11"/>
       <c r="AM15" s="11"/>
@@ -21186,7 +24397,7 @@
       <c r="AX15" s="11"/>
       <c r="AY15" s="11"/>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>52</v>
       </c>
@@ -21383,7 +24594,10 @@
         <v>19.02</v>
       </c>
       <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
+      <c r="AJ17" s="11" t="str">
+        <f>VLOOKUP(A17,[3]Sheet!$A:$I,9,0)</f>
+        <v>в матрице</v>
+      </c>
       <c r="AK17" s="11"/>
       <c r="AL17" s="11"/>
       <c r="AM17" s="11"/>
@@ -21498,7 +24712,10 @@
         <v>3.8400000000000007</v>
       </c>
       <c r="AI18" s="11"/>
-      <c r="AJ18" s="11"/>
+      <c r="AJ18" s="11" t="str">
+        <f>VLOOKUP(A18,[3]Sheet!$A:$I,9,0)</f>
+        <v>в матрице</v>
+      </c>
       <c r="AK18" s="11"/>
       <c r="AL18" s="11"/>
       <c r="AM18" s="11"/>
@@ -21613,7 +24830,10 @@
         <v>5.5300000000000011</v>
       </c>
       <c r="AI19" s="11"/>
-      <c r="AJ19" s="11"/>
+      <c r="AJ19" s="11" t="str">
+        <f>VLOOKUP(A19,[3]Sheet!$A:$I,9,0)</f>
+        <v>в матрице</v>
+      </c>
       <c r="AK19" s="11"/>
       <c r="AL19" s="11"/>
       <c r="AM19" s="11"/>
@@ -21730,7 +24950,10 @@
         <v>10.574000000000003</v>
       </c>
       <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
+      <c r="AJ20" s="11" t="str">
+        <f>VLOOKUP(A20,[3]Sheet!$A:$I,9,0)</f>
+        <v>в матрице</v>
+      </c>
       <c r="AK20" s="11"/>
       <c r="AL20" s="11"/>
       <c r="AM20" s="11"/>
@@ -21747,7 +24970,7 @@
       <c r="AX20" s="11"/>
       <c r="AY20" s="11"/>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>58</v>
       </c>
@@ -21938,7 +25161,10 @@
         <v>0</v>
       </c>
       <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
+      <c r="AJ22" s="11" t="str">
+        <f>VLOOKUP(A22,[3]Sheet!$A:$I,9,0)</f>
+        <v>в матрице</v>
+      </c>
       <c r="AK22" s="11"/>
       <c r="AL22" s="11"/>
       <c r="AM22" s="11"/>
@@ -22049,7 +25275,10 @@
         <v>0</v>
       </c>
       <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
+      <c r="AJ23" s="11" t="str">
+        <f>VLOOKUP(A23,[3]Sheet!$A:$I,9,0)</f>
+        <v>в матрице</v>
+      </c>
       <c r="AK23" s="11"/>
       <c r="AL23" s="11"/>
       <c r="AM23" s="11"/>
@@ -22160,7 +25389,10 @@
         <v>0</v>
       </c>
       <c r="AI24" s="11"/>
-      <c r="AJ24" s="11"/>
+      <c r="AJ24" s="11" t="str">
+        <f>VLOOKUP(A24,[3]Sheet!$A:$I,9,0)</f>
+        <v>в матрице</v>
+      </c>
       <c r="AK24" s="11"/>
       <c r="AL24" s="11"/>
       <c r="AM24" s="11"/>
@@ -22271,7 +25503,10 @@
         <v>0</v>
       </c>
       <c r="AI25" s="11"/>
-      <c r="AJ25" s="11"/>
+      <c r="AJ25" s="11" t="str">
+        <f>VLOOKUP(A25,[3]Sheet!$A:$I,9,0)</f>
+        <v>ТОП / матрица</v>
+      </c>
       <c r="AK25" s="11"/>
       <c r="AL25" s="11"/>
       <c r="AM25" s="11"/>
@@ -22384,7 +25619,10 @@
         <v>0</v>
       </c>
       <c r="AI26" s="11"/>
-      <c r="AJ26" s="11"/>
+      <c r="AJ26" s="11" t="str">
+        <f>VLOOKUP(A26,[3]Sheet!$A:$I,9,0)</f>
+        <v>ТОП / матрица</v>
+      </c>
       <c r="AK26" s="11"/>
       <c r="AL26" s="11"/>
       <c r="AM26" s="11"/>
@@ -22497,7 +25735,10 @@
         <v>0</v>
       </c>
       <c r="AI27" s="11"/>
-      <c r="AJ27" s="11"/>
+      <c r="AJ27" s="11" t="str">
+        <f>VLOOKUP(A27,[3]Sheet!$A:$I,9,0)</f>
+        <v>в матрице</v>
+      </c>
       <c r="AK27" s="11"/>
       <c r="AL27" s="11"/>
       <c r="AM27" s="11"/>
@@ -22612,7 +25853,10 @@
         <v>485.67039999999997</v>
       </c>
       <c r="AI28" s="11"/>
-      <c r="AJ28" s="11"/>
+      <c r="AJ28" s="11" t="str">
+        <f>VLOOKUP(A28,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK28" s="11"/>
       <c r="AL28" s="11"/>
       <c r="AM28" s="11"/>
@@ -22629,7 +25873,7 @@
       <c r="AX28" s="11"/>
       <c r="AY28" s="11"/>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>69</v>
       </c>
@@ -22826,7 +26070,10 @@
         <v>47.994600000000005</v>
       </c>
       <c r="AI30" s="11"/>
-      <c r="AJ30" s="11"/>
+      <c r="AJ30" s="11" t="str">
+        <f>VLOOKUP(A30,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK30" s="11"/>
       <c r="AL30" s="11"/>
       <c r="AM30" s="11"/>
@@ -22843,7 +26090,7 @@
       <c r="AX30" s="11"/>
       <c r="AY30" s="11"/>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>72</v>
       </c>
@@ -23040,7 +26287,10 @@
         <v>827.63360000000011</v>
       </c>
       <c r="AI32" s="11"/>
-      <c r="AJ32" s="11"/>
+      <c r="AJ32" s="11" t="str">
+        <f>VLOOKUP(A32,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK32" s="11"/>
       <c r="AL32" s="11"/>
       <c r="AM32" s="11"/>
@@ -23057,7 +26307,7 @@
       <c r="AX32" s="11"/>
       <c r="AY32" s="11"/>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>74</v>
       </c>
@@ -23154,7 +26404,7 @@
       <c r="AX33" s="11"/>
       <c r="AY33" s="11"/>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>75</v>
       </c>
@@ -23351,7 +26601,10 @@
         <v>6.089999999999999</v>
       </c>
       <c r="AI35" s="11"/>
-      <c r="AJ35" s="11"/>
+      <c r="AJ35" s="11" t="str">
+        <f>VLOOKUP(A35,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK35" s="11"/>
       <c r="AL35" s="11"/>
       <c r="AM35" s="11"/>
@@ -23468,7 +26721,10 @@
         <v>153.52000000000004</v>
       </c>
       <c r="AI36" s="11"/>
-      <c r="AJ36" s="11"/>
+      <c r="AJ36" s="11" t="str">
+        <f>VLOOKUP(A36,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK36" s="11"/>
       <c r="AL36" s="11"/>
       <c r="AM36" s="11"/>
@@ -23585,7 +26841,10 @@
         <v>188.28</v>
       </c>
       <c r="AI37" s="11"/>
-      <c r="AJ37" s="11"/>
+      <c r="AJ37" s="11" t="str">
+        <f>VLOOKUP(A37,[3]Sheet!$A:$I,9,0)</f>
+        <v>в матрице</v>
+      </c>
       <c r="AK37" s="11"/>
       <c r="AL37" s="11"/>
       <c r="AM37" s="11"/>
@@ -23702,7 +26961,10 @@
         <v>106.87999999999998</v>
       </c>
       <c r="AI38" s="11"/>
-      <c r="AJ38" s="11"/>
+      <c r="AJ38" s="11" t="str">
+        <f>VLOOKUP(A38,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK38" s="11"/>
       <c r="AL38" s="11"/>
       <c r="AM38" s="11"/>
@@ -23819,7 +27081,10 @@
         <v>121.04000000000002</v>
       </c>
       <c r="AI39" s="11"/>
-      <c r="AJ39" s="11"/>
+      <c r="AJ39" s="11" t="str">
+        <f>VLOOKUP(A39,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK39" s="11"/>
       <c r="AL39" s="11"/>
       <c r="AM39" s="11"/>
@@ -23836,7 +27101,7 @@
       <c r="AX39" s="11"/>
       <c r="AY39" s="11"/>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>81</v>
       </c>
@@ -23933,7 +27198,7 @@
       <c r="AX40" s="11"/>
       <c r="AY40" s="11"/>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>82</v>
       </c>
@@ -24130,7 +27395,10 @@
         <v>8.5</v>
       </c>
       <c r="AI42" s="11"/>
-      <c r="AJ42" s="11"/>
+      <c r="AJ42" s="11" t="str">
+        <f>VLOOKUP(A42,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK42" s="11"/>
       <c r="AL42" s="11"/>
       <c r="AM42" s="11"/>
@@ -24247,7 +27515,10 @@
         <v>63.63</v>
       </c>
       <c r="AI43" s="11"/>
-      <c r="AJ43" s="11"/>
+      <c r="AJ43" s="11" t="str">
+        <f>VLOOKUP(A43,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK43" s="11"/>
       <c r="AL43" s="11"/>
       <c r="AM43" s="11"/>
@@ -24364,7 +27635,10 @@
         <v>4.8800000000000017</v>
       </c>
       <c r="AI44" s="11"/>
-      <c r="AJ44" s="11"/>
+      <c r="AJ44" s="11" t="str">
+        <f>VLOOKUP(A44,[3]Sheet!$A:$I,9,0)</f>
+        <v>в матрице</v>
+      </c>
       <c r="AK44" s="11"/>
       <c r="AL44" s="11"/>
       <c r="AM44" s="11"/>
@@ -24481,7 +27755,10 @@
         <v>21.6</v>
       </c>
       <c r="AI45" s="11"/>
-      <c r="AJ45" s="11"/>
+      <c r="AJ45" s="11" t="str">
+        <f>VLOOKUP(A45,[3]Sheet!$A:$I,9,0)</f>
+        <v>в матрице</v>
+      </c>
       <c r="AK45" s="11"/>
       <c r="AL45" s="11"/>
       <c r="AM45" s="11"/>
@@ -24599,7 +27876,10 @@
         <v>64.890999999999991</v>
       </c>
       <c r="AI46" s="11"/>
-      <c r="AJ46" s="11"/>
+      <c r="AJ46" s="11" t="str">
+        <f>VLOOKUP(A46,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK46" s="11"/>
       <c r="AL46" s="11"/>
       <c r="AM46" s="11"/>
@@ -24718,7 +27998,10 @@
         <v>114.31</v>
       </c>
       <c r="AI47" s="11"/>
-      <c r="AJ47" s="11"/>
+      <c r="AJ47" s="11" t="str">
+        <f>VLOOKUP(A47,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK47" s="11"/>
       <c r="AL47" s="11"/>
       <c r="AM47" s="11"/>
@@ -24735,7 +28018,7 @@
       <c r="AX47" s="11"/>
       <c r="AY47" s="11"/>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>89</v>
       </c>
@@ -24932,7 +28215,10 @@
         <v>502.54239999999999</v>
       </c>
       <c r="AI49" s="11"/>
-      <c r="AJ49" s="11"/>
+      <c r="AJ49" s="11" t="str">
+        <f>VLOOKUP(A49,[3]Sheet!$A:$I,9,0)</f>
+        <v>ТОП / матрица</v>
+      </c>
       <c r="AK49" s="11"/>
       <c r="AL49" s="11"/>
       <c r="AM49" s="11"/>
@@ -25043,7 +28329,10 @@
         <v>0</v>
       </c>
       <c r="AI50" s="11"/>
-      <c r="AJ50" s="11"/>
+      <c r="AJ50" s="11" t="str">
+        <f>VLOOKUP(A50,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK50" s="11"/>
       <c r="AL50" s="11"/>
       <c r="AM50" s="11"/>
@@ -25148,7 +28437,10 @@
         <v>0</v>
       </c>
       <c r="AI51" s="11"/>
-      <c r="AJ51" s="11"/>
+      <c r="AJ51" s="11" t="str">
+        <f>VLOOKUP(A51,[3]Sheet!$A:$I,9,0)</f>
+        <v>ВНИМАНИЕ / матрица</v>
+      </c>
       <c r="AK51" s="11"/>
       <c r="AL51" s="11"/>
       <c r="AM51" s="11"/>
@@ -25267,7 +28559,10 @@
         <v>375.75</v>
       </c>
       <c r="AI52" s="11"/>
-      <c r="AJ52" s="11"/>
+      <c r="AJ52" s="11" t="str">
+        <f>VLOOKUP(A52,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK52" s="11"/>
       <c r="AL52" s="11"/>
       <c r="AM52" s="11"/>
@@ -25384,7 +28679,10 @@
         <v>236.60999999999999</v>
       </c>
       <c r="AI53" s="11"/>
-      <c r="AJ53" s="11"/>
+      <c r="AJ53" s="11" t="str">
+        <f>VLOOKUP(A53,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK53" s="11"/>
       <c r="AL53" s="11"/>
       <c r="AM53" s="11"/>
@@ -25501,7 +28799,10 @@
         <v>50.579999999999991</v>
       </c>
       <c r="AI54" s="11"/>
-      <c r="AJ54" s="11"/>
+      <c r="AJ54" s="11" t="str">
+        <f>VLOOKUP(A54,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK54" s="11"/>
       <c r="AL54" s="11"/>
       <c r="AM54" s="11"/>
@@ -25610,7 +28911,10 @@
         <v>0</v>
       </c>
       <c r="AI55" s="11"/>
-      <c r="AJ55" s="11"/>
+      <c r="AJ55" s="11" t="str">
+        <f>VLOOKUP(A55,[3]Sheet!$A:$I,9,0)</f>
+        <v>в матрице</v>
+      </c>
       <c r="AK55" s="11"/>
       <c r="AL55" s="11"/>
       <c r="AM55" s="11"/>
@@ -25719,7 +29023,10 @@
         <v>0</v>
       </c>
       <c r="AI56" s="11"/>
-      <c r="AJ56" s="11"/>
+      <c r="AJ56" s="11" t="str">
+        <f>VLOOKUP(A56,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK56" s="11"/>
       <c r="AL56" s="11"/>
       <c r="AM56" s="11"/>
@@ -25836,7 +29143,10 @@
         <v>7.7</v>
       </c>
       <c r="AI57" s="11"/>
-      <c r="AJ57" s="11"/>
+      <c r="AJ57" s="11" t="str">
+        <f>VLOOKUP(A57,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK57" s="11"/>
       <c r="AL57" s="11"/>
       <c r="AM57" s="11"/>
@@ -25955,7 +29265,10 @@
         <v>93.845200000000006</v>
       </c>
       <c r="AI58" s="11"/>
-      <c r="AJ58" s="11"/>
+      <c r="AJ58" s="11" t="str">
+        <f>VLOOKUP(A58,[3]Sheet!$A:$I,9,0)</f>
+        <v>в матрице</v>
+      </c>
       <c r="AK58" s="11"/>
       <c r="AL58" s="11"/>
       <c r="AM58" s="11"/>
@@ -26060,7 +29373,10 @@
         <v>0</v>
       </c>
       <c r="AI59" s="11"/>
-      <c r="AJ59" s="11"/>
+      <c r="AJ59" s="11" t="str">
+        <f>VLOOKUP(A59,[3]Sheet!$A:$I,9,0)</f>
+        <v>ВНИМАНИЕ / в матрице</v>
+      </c>
       <c r="AK59" s="11"/>
       <c r="AL59" s="11"/>
       <c r="AM59" s="11"/>
@@ -26179,7 +29495,10 @@
         <v>9.6</v>
       </c>
       <c r="AI60" s="11"/>
-      <c r="AJ60" s="11"/>
+      <c r="AJ60" s="11" t="str">
+        <f>VLOOKUP(A60,[3]Sheet!$A:$I,9,0)</f>
+        <v>в матрице</v>
+      </c>
       <c r="AK60" s="11"/>
       <c r="AL60" s="11"/>
       <c r="AM60" s="11"/>
@@ -26296,7 +29615,10 @@
         <v>15.36</v>
       </c>
       <c r="AI61" s="11"/>
-      <c r="AJ61" s="11"/>
+      <c r="AJ61" s="11" t="str">
+        <f>VLOOKUP(A61,[3]Sheet!$A:$I,9,0)</f>
+        <v>в матрице</v>
+      </c>
       <c r="AK61" s="11"/>
       <c r="AL61" s="11"/>
       <c r="AM61" s="11"/>
@@ -26415,7 +29737,10 @@
         <v>12.839999999999998</v>
       </c>
       <c r="AI62" s="11"/>
-      <c r="AJ62" s="11"/>
+      <c r="AJ62" s="11" t="str">
+        <f>VLOOKUP(A62,[3]Sheet!$A:$I,9,0)</f>
+        <v>в матрице</v>
+      </c>
       <c r="AK62" s="11"/>
       <c r="AL62" s="11"/>
       <c r="AM62" s="11"/>
@@ -26531,7 +29856,10 @@
         <v>16.32</v>
       </c>
       <c r="AI63" s="11"/>
-      <c r="AJ63" s="11"/>
+      <c r="AJ63" s="11" t="str">
+        <f>VLOOKUP(A63,[3]Sheet!$A:$I,9,0)</f>
+        <v>в матрице</v>
+      </c>
       <c r="AK63" s="11"/>
       <c r="AL63" s="11"/>
       <c r="AM63" s="11"/>
@@ -26648,7 +29976,10 @@
         <v>7.6000000000000005</v>
       </c>
       <c r="AI64" s="11"/>
-      <c r="AJ64" s="11"/>
+      <c r="AJ64" s="11" t="str">
+        <f>VLOOKUP(A64,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK64" s="11"/>
       <c r="AL64" s="11"/>
       <c r="AM64" s="11"/>
@@ -26765,7 +30096,10 @@
         <v>61.974000000000004</v>
       </c>
       <c r="AI65" s="11"/>
-      <c r="AJ65" s="11"/>
+      <c r="AJ65" s="11" t="str">
+        <f>VLOOKUP(A65,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK65" s="11"/>
       <c r="AL65" s="11"/>
       <c r="AM65" s="11"/>
@@ -26882,7 +30216,10 @@
         <v>33.25</v>
       </c>
       <c r="AI66" s="11"/>
-      <c r="AJ66" s="11"/>
+      <c r="AJ66" s="11" t="str">
+        <f>VLOOKUP(A66,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK66" s="11"/>
       <c r="AL66" s="11"/>
       <c r="AM66" s="11"/>
@@ -26997,7 +30334,10 @@
         <v>15.959999999999997</v>
       </c>
       <c r="AI67" s="11"/>
-      <c r="AJ67" s="11"/>
+      <c r="AJ67" s="11" t="str">
+        <f>VLOOKUP(A67,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK67" s="11"/>
       <c r="AL67" s="11"/>
       <c r="AM67" s="11"/>
@@ -27116,7 +30456,10 @@
         <v>206.01000000000005</v>
       </c>
       <c r="AI68" s="11"/>
-      <c r="AJ68" s="11"/>
+      <c r="AJ68" s="11" t="str">
+        <f>VLOOKUP(A68,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK68" s="11"/>
       <c r="AL68" s="11"/>
       <c r="AM68" s="11"/>
@@ -27233,7 +30576,10 @@
         <v>4.5</v>
       </c>
       <c r="AI69" s="11"/>
-      <c r="AJ69" s="11"/>
+      <c r="AJ69" s="11" t="str">
+        <f>VLOOKUP(A69,[3]Sheet!$A:$I,9,0)</f>
+        <v>в матрице</v>
+      </c>
       <c r="AK69" s="11"/>
       <c r="AL69" s="11"/>
       <c r="AM69" s="11"/>
@@ -27250,7 +30596,7 @@
       <c r="AX69" s="11"/>
       <c r="AY69" s="11"/>
     </row>
-    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>116</v>
       </c>
@@ -27347,7 +30693,7 @@
       <c r="AX70" s="11"/>
       <c r="AY70" s="11"/>
     </row>
-    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>117</v>
       </c>
@@ -27444,7 +30790,7 @@
       <c r="AX71" s="11"/>
       <c r="AY71" s="11"/>
     </row>
-    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>118</v>
       </c>
@@ -27541,7 +30887,7 @@
       <c r="AX72" s="11"/>
       <c r="AY72" s="11"/>
     </row>
-    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>119</v>
       </c>
@@ -27638,7 +30984,7 @@
       <c r="AX73" s="11"/>
       <c r="AY73" s="11"/>
     </row>
-    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>120</v>
       </c>
@@ -27824,7 +31170,10 @@
         <v>0</v>
       </c>
       <c r="AI75" s="11"/>
-      <c r="AJ75" s="11"/>
+      <c r="AJ75" s="11" t="e">
+        <f>VLOOKUP(A75,[3]Sheet!$A:$I,9,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="AK75" s="11"/>
       <c r="AL75" s="11"/>
       <c r="AM75" s="11"/>
@@ -27841,7 +31190,7 @@
       <c r="AX75" s="11"/>
       <c r="AY75" s="11"/>
     </row>
-    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>123</v>
       </c>
@@ -27938,7 +31287,7 @@
       <c r="AX76" s="11"/>
       <c r="AY76" s="11"/>
     </row>
-    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>124</v>
       </c>
@@ -28135,7 +31484,10 @@
         <v>72.24560000000001</v>
       </c>
       <c r="AI78" s="11"/>
-      <c r="AJ78" s="11"/>
+      <c r="AJ78" s="11" t="str">
+        <f>VLOOKUP(A78,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK78" s="11"/>
       <c r="AL78" s="11"/>
       <c r="AM78" s="11"/>
@@ -28252,7 +31604,10 @@
         <v>730.44999999999993</v>
       </c>
       <c r="AI79" s="11"/>
-      <c r="AJ79" s="11"/>
+      <c r="AJ79" s="11" t="str">
+        <f>VLOOKUP(A79,[3]Sheet!$A:$I,9,0)</f>
+        <v>в матрице</v>
+      </c>
       <c r="AK79" s="11"/>
       <c r="AL79" s="11"/>
       <c r="AM79" s="11"/>
@@ -28365,7 +31720,10 @@
         <v>0</v>
       </c>
       <c r="AI80" s="11"/>
-      <c r="AJ80" s="11"/>
+      <c r="AJ80" s="11" t="str">
+        <f>VLOOKUP(A80,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK80" s="11"/>
       <c r="AL80" s="11"/>
       <c r="AM80" s="11"/>
@@ -28478,7 +31836,10 @@
         <v>12.8</v>
       </c>
       <c r="AI81" s="11"/>
-      <c r="AJ81" s="11"/>
+      <c r="AJ81" s="11" t="str">
+        <f>VLOOKUP(A81,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK81" s="11"/>
       <c r="AL81" s="11"/>
       <c r="AM81" s="11"/>
@@ -28595,7 +31956,10 @@
         <v>51.900000000000006</v>
       </c>
       <c r="AI82" s="11"/>
-      <c r="AJ82" s="11"/>
+      <c r="AJ82" s="11" t="str">
+        <f>VLOOKUP(A82,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK82" s="11"/>
       <c r="AL82" s="11"/>
       <c r="AM82" s="11"/>
@@ -28714,7 +32078,10 @@
         <v>18.5</v>
       </c>
       <c r="AI83" s="11"/>
-      <c r="AJ83" s="11"/>
+      <c r="AJ83" s="11" t="str">
+        <f>VLOOKUP(A83,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK83" s="11"/>
       <c r="AL83" s="11"/>
       <c r="AM83" s="11"/>
@@ -28731,7 +32098,7 @@
       <c r="AX83" s="11"/>
       <c r="AY83" s="11"/>
     </row>
-    <row r="84" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>132</v>
       </c>
@@ -28828,7 +32195,7 @@
       <c r="AX84" s="11"/>
       <c r="AY84" s="11"/>
     </row>
-    <row r="85" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>133</v>
       </c>
@@ -29025,7 +32392,10 @@
         <v>34.58</v>
       </c>
       <c r="AI86" s="11"/>
-      <c r="AJ86" s="11"/>
+      <c r="AJ86" s="11" t="str">
+        <f>VLOOKUP(A86,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK86" s="11"/>
       <c r="AL86" s="11"/>
       <c r="AM86" s="11"/>
@@ -29142,7 +32512,10 @@
         <v>35.699999999999996</v>
       </c>
       <c r="AI87" s="11"/>
-      <c r="AJ87" s="11"/>
+      <c r="AJ87" s="11" t="str">
+        <f>VLOOKUP(A87,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK87" s="11"/>
       <c r="AL87" s="11"/>
       <c r="AM87" s="11"/>
@@ -29259,7 +32632,10 @@
         <v>7.7759999999999998</v>
       </c>
       <c r="AI88" s="11"/>
-      <c r="AJ88" s="11"/>
+      <c r="AJ88" s="11" t="str">
+        <f>VLOOKUP(A88,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK88" s="11"/>
       <c r="AL88" s="11"/>
       <c r="AM88" s="11"/>
@@ -29376,7 +32752,10 @@
         <v>4.1440000000000019</v>
       </c>
       <c r="AI89" s="11"/>
-      <c r="AJ89" s="11"/>
+      <c r="AJ89" s="11" t="str">
+        <f>VLOOKUP(A89,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK89" s="11"/>
       <c r="AL89" s="11"/>
       <c r="AM89" s="11"/>
@@ -29487,7 +32866,10 @@
         <v>0</v>
       </c>
       <c r="AI90" s="11"/>
-      <c r="AJ90" s="11"/>
+      <c r="AJ90" s="11" t="str">
+        <f>VLOOKUP(A90,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK90" s="11"/>
       <c r="AL90" s="11"/>
       <c r="AM90" s="11"/>
@@ -29604,7 +32986,10 @@
         <v>3.3040000000000016</v>
       </c>
       <c r="AI91" s="11"/>
-      <c r="AJ91" s="11"/>
+      <c r="AJ91" s="11" t="str">
+        <f>VLOOKUP(A91,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK91" s="11"/>
       <c r="AL91" s="11"/>
       <c r="AM91" s="11"/>
@@ -29721,7 +33106,10 @@
         <v>0.34000000000000008</v>
       </c>
       <c r="AI92" s="11"/>
-      <c r="AJ92" s="11"/>
+      <c r="AJ92" s="11" t="str">
+        <f>VLOOKUP(A92,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK92" s="11"/>
       <c r="AL92" s="11"/>
       <c r="AM92" s="11"/>
@@ -29832,7 +33220,10 @@
         <v>0</v>
       </c>
       <c r="AI93" s="11"/>
-      <c r="AJ93" s="11"/>
+      <c r="AJ93" s="11" t="str">
+        <f>VLOOKUP(A93,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK93" s="11"/>
       <c r="AL93" s="11"/>
       <c r="AM93" s="11"/>
@@ -29949,7 +33340,10 @@
         <v>1.5179999999999998</v>
       </c>
       <c r="AI94" s="11"/>
-      <c r="AJ94" s="11"/>
+      <c r="AJ94" s="11" t="str">
+        <f>VLOOKUP(A94,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK94" s="11"/>
       <c r="AL94" s="11"/>
       <c r="AM94" s="11"/>
@@ -30060,7 +33454,10 @@
         <v>0</v>
       </c>
       <c r="AI95" s="11"/>
-      <c r="AJ95" s="11"/>
+      <c r="AJ95" s="11" t="str">
+        <f>VLOOKUP(A95,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK95" s="11"/>
       <c r="AL95" s="11"/>
       <c r="AM95" s="11"/>
@@ -30181,7 +33578,10 @@
         <v>17.430000000000003</v>
       </c>
       <c r="AI96" s="11"/>
-      <c r="AJ96" s="11"/>
+      <c r="AJ96" s="11" t="str">
+        <f>VLOOKUP(A96,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK96" s="11"/>
       <c r="AL96" s="11"/>
       <c r="AM96" s="11"/>
@@ -30298,7 +33698,10 @@
         <v>8.8059999999999992</v>
       </c>
       <c r="AI97" s="11"/>
-      <c r="AJ97" s="11"/>
+      <c r="AJ97" s="11" t="str">
+        <f>VLOOKUP(A97,[3]Sheet!$A:$I,9,0)</f>
+        <v>матрица</v>
+      </c>
       <c r="AK97" s="11"/>
       <c r="AL97" s="11"/>
       <c r="AM97" s="11"/>
@@ -51997,7 +55400,20 @@
       <c r="AY500" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AH103" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:AH103" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="32">
+      <filters blank="1">
+        <filter val="05,08,25 филиал обнулил"/>
+        <filter val="19,08,25 филиал обнулил"/>
+        <filter val="19,08,25 филиал обнулил / 20,03,25 списание 18кг (брак)"/>
+        <filter val="берем только под клиента"/>
+        <filter val="заказы только под Перевезенцева"/>
+        <filter val="нет в бланке"/>
+        <filter val="нужно увеличить продажи"/>
+        <filter val="нужно увеличить продажи!!! / берем только под клиента"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
